--- a/biology/Zoologie/Bruchus/Bruchus.xlsx
+++ b/biology/Zoologie/Bruchus/Bruchus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Bruchus est un genre d'insectes coléoptères de la famille des Chrysomelidae, de la sous-famille des Bruchinae.
 </t>
@@ -511,15 +523,52 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>C'est Linné qui créa le genre Bruchus, en y rattachant à l'origine presque toutes les espèces connues de bruches.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est Linné qui créa le genre Bruchus, en y rattachant à l'origine presque toutes les espèces connues de bruches.
 Par la suite, ce genre fut subdivisé et de nombreuses espèces ont été réparties dans différents genres nouveaux.
 Certains auteurs ont néanmoins continué à classer de nouvelles espèces décrites de bruches dans le genre Bruchus, créant une certaine confusion dans ce taxon qui finit par regrouper nombre d'espèces non apparentées de façon tout à fait évidente.
-À présent, après plusieurs révisions, la circonscription du genre Bruchus est relativement claire[1].
-Des analyses phylogénétiques ont montré que le genre Bruchus, tel qu'il est défini actuellement, est un genre monophylétique[2], mais aussi que deux des sept groupes composant le genre sont « potentiellement paraphylétiques »[3].
-Liste des espèces
-Le genre Bruchus regroupe actuellement (2013) 36 espèces valides[4],[3] :
+À présent, après plusieurs révisions, la circonscription du genre Bruchus est relativement claire.
+Des analyses phylogénétiques ont montré que le genre Bruchus, tel qu'il est défini actuellement, est un genre monophylétique, mais aussi que deux des sept groupes composant le genre sont « potentiellement paraphylétiques ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Bruchus</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruchus</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Bruchus regroupe actuellement (2013) 36 espèces valides, :
 Bruchus affinis Frölich, 1799.
 Bruchus altaicus Fahraeus, 1839.
 Bruchus anatolicus Anton, 1999.
@@ -556,8 +605,43 @@
 Bruchus ulicis Mulsant &amp; Rey, 1858.
 Bruchus venustus Fahraeus, 1839.
 Bruchus viciae Olivier, 1795 - bruche de la vesce.
-Synonymes
-Selon Faunaeur[5] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Bruchus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bruchus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Faunaeur :
 Laria Geoffroy 1763
 Mylabris Muller 1764
 Mylabris Geoffrey, 1762</t>
